--- a/sifa_E_tong/pages/template/contacts.xlsx
+++ b/sifa_E_tong/pages/template/contacts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -24,12 +24,6 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>短码</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
     <t>一级目录</t>
   </si>
   <si>
@@ -253,6 +247,81 @@
   </si>
   <si>
     <t>开福区司法局机关</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0731-4482814</t>
+  </si>
+  <si>
+    <t>0731-4482815</t>
+  </si>
+  <si>
+    <t>0731-4482816</t>
+  </si>
+  <si>
+    <t>0731-4482817</t>
+  </si>
+  <si>
+    <t>0731-4482818</t>
+  </si>
+  <si>
+    <t>0731-4482819</t>
+  </si>
+  <si>
+    <t>0731-4482820</t>
+  </si>
+  <si>
+    <t>0731-4482821</t>
+  </si>
+  <si>
+    <t>0731-4482822</t>
+  </si>
+  <si>
+    <t>0731-4482823</t>
+  </si>
+  <si>
+    <t>0731-4482824</t>
+  </si>
+  <si>
+    <t>0731-4482825</t>
+  </si>
+  <si>
+    <t>0731-4482826</t>
+  </si>
+  <si>
+    <t>0731-4482827</t>
+  </si>
+  <si>
+    <t>0731-4482828</t>
+  </si>
+  <si>
+    <t>0731-4482829</t>
+  </si>
+  <si>
+    <t>0731-4482830</t>
+  </si>
+  <si>
+    <t>0731-4482831</t>
+  </si>
+  <si>
+    <t>0731-4482832</t>
+  </si>
+  <si>
+    <t>0731-4482833</t>
+  </si>
+  <si>
+    <t>0731-4482834</t>
+  </si>
+  <si>
+    <t>座机号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团短码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,23 +673,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="35.25" customWidth="1"/>
+    <col min="3" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,507 +697,576 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>654654</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B11" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C11" s="2">
         <v>4121</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2">
         <v>4121</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3">
         <v>4442</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2">
         <v>4121</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2">
         <v>4121</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3">
         <v>4442</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2">
         <v>4121</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3">
         <v>4442</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3">
         <v>4442</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
